--- a/projects/va_stoch/uncertain_emission_limits/data/data_va_stoch.xlsx
+++ b/projects/va_stoch/uncertain_emission_limits/data/data_va_stoch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14816BA-DC50-45C9-AC45-4436F6BA400A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865824B5-F665-4D07-96D2-24D285221CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="844" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -28,17 +28,26 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId18"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="294">
   <si>
     <t>connection</t>
   </si>
@@ -914,6 +923,12 @@
   </si>
   <si>
     <t>Bath County Pumped Storage</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
   </si>
 </sst>
 </file>
@@ -1508,12 +1523,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1553,7 +1568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1561,7 +1576,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1570,13 +1585,13 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1609,7 +1624,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1628,32 +1643,32 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -1669,7 +1684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -1677,7 +1692,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -1685,13 +1700,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -1699,7 +1714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -1731,7 +1746,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -1765,27 +1780,27 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -2001,7 +2016,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -2090,7 +2105,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
@@ -2114,12 +2129,12 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2154,23 +2169,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2178,34 +2194,37 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2216,7 +2235,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>77</v>
@@ -2230,424 +2249,437 @@
       <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
-        <v>180</v>
+      <c r="I2" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>180</v>
       </c>
       <c r="K2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="13">
         <v>0.9</v>
       </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="44">
+      <c r="I4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="44">
         <v>0.95</v>
       </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>0.95</v>
       </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="13">
+      <c r="I6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="13">
         <v>0.95</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="44">
+      <c r="I7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="44">
         <v>0.91</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="45">
+      <c r="K8" s="45">
         <v>0.37</v>
       </c>
-      <c r="K8" s="45">
+      <c r="L8" s="45">
         <v>-3.68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="13">
+      <c r="I9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="13">
         <v>0.98</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="45">
+      <c r="K10" s="45">
         <v>0.51</v>
       </c>
-      <c r="K10" s="45">
+      <c r="L10" s="45">
         <v>-2.84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11" s="44">
+      <c r="K11" s="44">
         <v>0.95</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>0.95</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13" s="44">
+      <c r="K13" s="44">
         <v>0.95</v>
       </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <v>0.75</v>
       </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>119</v>
@@ -2656,91 +2688,94 @@
         <v>119</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="44">
+      <c r="K15" s="44">
         <v>0.95</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="13">
+      <c r="I16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="13">
         <v>0.9</v>
       </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="13">
+      <c r="I17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="13">
         <v>0.95</v>
       </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>119</v>
@@ -2749,65 +2784,67 @@
         <v>119</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="13">
+      <c r="I18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="13">
         <v>0.95</v>
       </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="13">
+      <c r="I19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="13">
         <v>0.91</v>
       </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>119</v>
@@ -2816,30 +2853,31 @@
         <v>119</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <v>0.23</v>
       </c>
-      <c r="K20" s="45">
+      <c r="L20" s="45">
         <v>-2.95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>119</v>
@@ -2848,195 +2886,201 @@
         <v>119</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="45">
+      <c r="K21" s="45">
         <v>0.33</v>
       </c>
-      <c r="K21" s="44">
+      <c r="L21" s="44">
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <v>0.23</v>
       </c>
-      <c r="K22" s="45">
+      <c r="L22" s="45">
         <v>-2.95</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="45">
+      <c r="K23" s="45">
         <v>0.33</v>
       </c>
-      <c r="K23" s="44">
+      <c r="L23" s="44">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="49" t="s">
         <v>257</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49" t="s">
         <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
       </c>
       <c r="E24" t="s">
         <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>119</v>
       </c>
       <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48">
+      <c r="J24" s="48"/>
+      <c r="K24" s="48">
         <v>0.23</v>
       </c>
-      <c r="K24" s="48">
+      <c r="L24" s="48">
         <v>-2.95</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="49" t="s">
         <v>258</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>118</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" t="s">
-        <v>118</v>
       </c>
       <c r="H25" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48">
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48">
         <v>0.95</v>
       </c>
-      <c r="K25" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="49" t="s">
         <v>259</v>
       </c>
       <c r="B26" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>118</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>119</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="48">
+      <c r="J26" s="48">
         <v>24</v>
       </c>
-      <c r="J26" s="48">
+      <c r="K26" s="48">
         <v>0.95</v>
       </c>
-      <c r="K26" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="49" t="s">
         <v>260</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>118</v>
-      </c>
-      <c r="E27" t="s">
-        <v>119</v>
       </c>
       <c r="F27" t="s">
         <v>119</v>
@@ -3045,43 +3089,46 @@
         <v>119</v>
       </c>
       <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48">
+      <c r="J27" s="48"/>
+      <c r="K27" s="48">
         <v>0.95</v>
       </c>
-      <c r="K27" s="48">
+      <c r="L27" s="48">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:I11 D14:I23">
+  <conditionalFormatting sqref="E3:J11 E14:J23">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:I12">
+  <conditionalFormatting sqref="E12:J12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:I13">
+  <conditionalFormatting sqref="E13:J13">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:I27">
+  <conditionalFormatting sqref="E27:J27">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:I26">
+  <conditionalFormatting sqref="E26:J26">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:I26">
+  <conditionalFormatting sqref="E25:J26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -3093,24 +3140,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -3124,22 +3171,25 @@
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -3153,22 +3203,25 @@
         <v>70</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -3181,19 +3234,20 @@
       <c r="D3" s="8">
         <v>39.4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="5">
+      <c r="H3" s="8"/>
+      <c r="I3" s="5">
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
@@ -3206,19 +3260,20 @@
       <c r="D4" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="6">
+      <c r="H4" s="8"/>
+      <c r="I4" s="6">
         <v>55</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -3231,19 +3286,20 @@
       <c r="D5" s="8">
         <v>90</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="5">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -3256,19 +3312,20 @@
       <c r="D6" s="29">
         <v>54.1</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="30">
+      <c r="H6" s="29"/>
+      <c r="I6" s="30">
         <v>35</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>231</v>
       </c>
@@ -3281,19 +3338,20 @@
       <c r="D7" s="30">
         <v>54.1</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="30">
+      <c r="H7" s="29"/>
+      <c r="I7" s="30">
         <v>35</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="J7" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -3306,19 +3364,20 @@
       <c r="D8" s="30">
         <v>20</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="29"/>
       <c r="G8" s="29"/>
-      <c r="H8" s="30">
+      <c r="H8" s="29"/>
+      <c r="I8" s="30">
         <v>30</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
@@ -3331,19 +3390,20 @@
       <c r="D9" s="30">
         <v>32.6</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="30">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30">
         <v>100</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="J9" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>190</v>
       </c>
@@ -3356,19 +3416,20 @@
       <c r="D10" s="30">
         <v>35.299999999999997</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="30"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
         <v>45</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="J10" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>198</v>
       </c>
@@ -3381,19 +3442,20 @@
       <c r="D11" s="30">
         <v>80</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30">
+      <c r="G11" s="30"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30">
         <v>100</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="J11" s="39" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -3406,19 +3468,20 @@
       <c r="D12" s="30">
         <v>50</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="30">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30">
         <v>30</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="J12" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>108</v>
       </c>
@@ -3431,19 +3494,20 @@
       <c r="D13" s="35">
         <v>85</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="35">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35">
         <v>15</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="J13" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
         <v>199</v>
       </c>
@@ -3456,19 +3520,20 @@
       <c r="D14" s="35">
         <v>80</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="35">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35">
         <v>100</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="J14" s="40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
         <v>109</v>
       </c>
@@ -3481,19 +3546,20 @@
       <c r="D15" s="35">
         <v>35.299999999999997</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="27">
+      <c r="H15" s="35"/>
+      <c r="I15" s="27">
         <v>45</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
         <v>175</v>
       </c>
@@ -3506,19 +3572,20 @@
       <c r="D16" s="34">
         <v>39.4</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="35">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35">
         <v>40</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="J16" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25" t="s">
         <v>177</v>
       </c>
@@ -3531,19 +3598,20 @@
       <c r="D17" s="34">
         <v>51.7</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="35">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35">
         <v>45</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="J17" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
         <v>110</v>
       </c>
@@ -3556,19 +3624,20 @@
       <c r="D18" s="35">
         <v>54.1</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="35">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35">
         <v>30</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="25" t="s">
         <v>111</v>
       </c>
@@ -3581,19 +3650,20 @@
       <c r="D19" s="35">
         <v>42.47</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="27">
+      <c r="H19" s="35"/>
+      <c r="I19" s="27">
         <v>55</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="J19" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
         <v>112</v>
       </c>
@@ -3606,19 +3676,20 @@
       <c r="D20" s="35">
         <v>20</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="35">
+      <c r="H20" s="35"/>
+      <c r="I20" s="35">
         <v>30</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="J20" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
         <v>113</v>
       </c>
@@ -3631,19 +3702,20 @@
       <c r="D21" s="35">
         <v>50</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="35">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35">
         <v>30</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="J21" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -3656,19 +3728,20 @@
       <c r="D22" s="30">
         <v>20</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29">
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29">
         <v>30</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="J22" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>224</v>
       </c>
@@ -3681,19 +3754,20 @@
       <c r="D23" s="5">
         <v>25</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <v>30</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="49" t="s">
         <v>257</v>
       </c>
@@ -3706,19 +3780,20 @@
       <c r="D24" s="48">
         <v>25</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="48"/>
       <c r="G24" s="48"/>
-      <c r="H24" s="48">
+      <c r="H24" s="48"/>
+      <c r="I24" s="48">
         <v>30</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="J24" s="48" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49" t="s">
         <v>258</v>
       </c>
@@ -3731,19 +3806,20 @@
       <c r="D25" s="48">
         <v>66</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="48"/>
+      <c r="F25" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48">
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48">
         <v>55</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="J25" s="48" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="49" t="s">
         <v>259</v>
       </c>
@@ -3756,19 +3832,20 @@
       <c r="D26" s="47">
         <v>70</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="F26" s="48"/>
       <c r="G26" s="48"/>
-      <c r="H26" s="48">
+      <c r="H26" s="48"/>
+      <c r="I26" s="48">
         <v>25</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="J26" s="47" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="49" t="s">
         <v>260</v>
       </c>
@@ -3782,15 +3859,16 @@
         <f>25-3.5</f>
         <v>21.5</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="48"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="47">
+      <c r="H27" s="48"/>
+      <c r="I27" s="47">
         <v>45</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="J27" s="48" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3804,28 +3882,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.53515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -3863,7 +3941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -3901,7 +3979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>103</v>
       </c>
@@ -3930,7 +4008,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A4" s="36" t="s">
         <v>230</v>
       </c>
@@ -3959,7 +4037,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A5" s="36" t="s">
         <v>104</v>
       </c>
@@ -3988,7 +4066,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
         <v>105</v>
       </c>
@@ -4017,7 +4095,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>231</v>
       </c>
@@ -4046,7 +4124,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>106</v>
       </c>
@@ -4075,7 +4153,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>185</v>
       </c>
@@ -4104,7 +4182,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>190</v>
       </c>
@@ -4133,7 +4211,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A11" s="36" t="s">
         <v>198</v>
       </c>
@@ -4161,7 +4239,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>107</v>
       </c>
@@ -4190,7 +4268,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
         <v>108</v>
       </c>
@@ -4226,7 +4304,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>199</v>
       </c>
@@ -4260,7 +4338,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
         <v>109</v>
       </c>
@@ -4296,7 +4374,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
         <v>175</v>
       </c>
@@ -4332,7 +4410,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
         <v>177</v>
       </c>
@@ -4368,7 +4446,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="36" t="s">
         <v>110</v>
       </c>
@@ -4404,7 +4482,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
         <v>111</v>
       </c>
@@ -4440,7 +4518,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="s">
         <v>112</v>
       </c>
@@ -4480,7 +4558,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
         <v>113</v>
       </c>
@@ -4520,7 +4598,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
@@ -4560,7 +4638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="36" t="s">
         <v>224</v>
       </c>
@@ -4600,7 +4678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>257</v>
       </c>
@@ -4640,7 +4718,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>258</v>
       </c>
@@ -4676,7 +4754,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>259</v>
       </c>
@@ -4711,7 +4789,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>260</v>
       </c>
@@ -4761,20 +4839,20 @@
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4806,7 +4884,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4838,7 +4916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -4848,7 +4926,7 @@
       <c r="C3" s="5"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
@@ -4858,7 +4936,7 @@
       <c r="C4" s="5"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -4866,7 +4944,7 @@
       <c r="C5" s="5"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -4874,7 +4952,7 @@
       <c r="C6" s="5"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>231</v>
       </c>
@@ -4882,7 +4960,7 @@
       <c r="C7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -4890,7 +4968,7 @@
       <c r="C8" s="5"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
@@ -4900,7 +4978,7 @@
       <c r="C9" s="5"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>190</v>
       </c>
@@ -4910,7 +4988,7 @@
       <c r="C10" s="5"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>198</v>
       </c>
@@ -4918,7 +4996,7 @@
       <c r="C11" s="5"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
@@ -4926,7 +5004,7 @@
       <c r="C12" s="5"/>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>108</v>
       </c>
@@ -4940,7 +5018,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
         <v>199</v>
       </c>
@@ -4958,7 +5036,7 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
         <v>109</v>
       </c>
@@ -4974,7 +5052,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
         <v>175</v>
       </c>
@@ -4990,7 +5068,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="25" t="s">
         <v>177</v>
       </c>
@@ -5006,7 +5084,7 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
         <v>110</v>
       </c>
@@ -5020,7 +5098,7 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="25" t="s">
         <v>111</v>
       </c>
@@ -5034,7 +5112,7 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
         <v>112</v>
       </c>
@@ -5052,7 +5130,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
         <v>113</v>
       </c>
@@ -5070,7 +5148,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -5082,13 +5160,13 @@
       </c>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>224</v>
       </c>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="49" t="s">
         <v>257</v>
       </c>
@@ -5105,7 +5183,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49" t="s">
         <v>258</v>
       </c>
@@ -5124,7 +5202,7 @@
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="49" t="s">
         <v>259</v>
       </c>
@@ -5141,7 +5219,7 @@
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="49" t="s">
         <v>260</v>
       </c>
@@ -5170,14 +5248,14 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5191,7 +5269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5205,7 +5283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -5219,7 +5297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -5233,7 +5311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -5247,7 +5325,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -5261,7 +5339,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -5275,7 +5353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -5289,7 +5367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -5303,7 +5381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -5317,7 +5395,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -5331,7 +5409,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>190</v>
       </c>
@@ -5345,7 +5423,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -5373,14 +5451,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5394,7 +5472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -5408,7 +5486,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="13">
         <v>2025</v>
       </c>
@@ -5422,7 +5500,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="13">
         <v>2030</v>
       </c>
@@ -5436,7 +5514,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="13">
         <v>2035</v>
       </c>
@@ -5450,7 +5528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>2040</v>
       </c>
@@ -5464,7 +5542,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>2045</v>
       </c>
@@ -5478,7 +5556,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>2050</v>
       </c>
@@ -5492,7 +5570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
         <v>2035</v>
       </c>
@@ -5506,7 +5584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
         <v>2040</v>
       </c>
@@ -5520,7 +5598,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
         <v>2045</v>
       </c>
@@ -5534,7 +5612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
         <v>2050</v>
       </c>
@@ -5548,7 +5626,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="13">
         <v>2035</v>
       </c>
@@ -5562,7 +5640,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="13">
         <v>2040</v>
       </c>
@@ -5576,7 +5654,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="13">
         <v>2045</v>
       </c>
@@ -5590,7 +5668,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="13">
         <v>2050</v>
       </c>
@@ -5617,14 +5695,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5632,7 +5710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5640,7 +5718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A3" s="21">
         <v>0.41860000000000003</v>
       </c>
@@ -5658,15 +5736,15 @@
       <selection activeCell="D171" sqref="D171:D194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5683,7 +5761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5700,7 +5778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -5717,7 +5795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -5734,7 +5812,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +5829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -5768,7 +5846,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5785,7 +5863,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -5802,7 +5880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -5819,7 +5897,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -5836,7 +5914,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -5853,7 +5931,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -5870,7 +5948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -5887,7 +5965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -5904,7 +5982,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5921,7 +5999,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>92</v>
       </c>
@@ -5938,7 +6016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -5955,7 +6033,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -5972,7 +6050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -5989,7 +6067,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +6084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -6023,7 +6101,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -6040,7 +6118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -6057,7 +6135,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -6091,7 +6169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -6108,7 +6186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
@@ -6125,7 +6203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6220,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -6159,7 +6237,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -6176,7 +6254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -6193,7 +6271,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -6210,7 +6288,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -6227,7 +6305,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -6244,7 +6322,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -6261,7 +6339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -6278,7 +6356,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -6295,7 +6373,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
@@ -6312,7 +6390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -6329,7 +6407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -6346,7 +6424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -6363,7 +6441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -6380,7 +6458,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
@@ -6397,7 +6475,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -6414,7 +6492,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -6431,7 +6509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -6448,7 +6526,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -6465,7 +6543,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -6482,7 +6560,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -6499,7 +6577,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6516,7 +6594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -6533,7 +6611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
@@ -6550,7 +6628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6567,7 +6645,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -6584,7 +6662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -6601,7 +6679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -6618,7 +6696,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6635,7 +6713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -6652,7 +6730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -6669,7 +6747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -6686,7 +6764,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -6703,7 +6781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>92</v>
       </c>
@@ -6720,7 +6798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -6737,7 +6815,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -6754,7 +6832,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -6771,7 +6849,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -6788,7 +6866,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -6805,7 +6883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6822,7 +6900,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -6839,7 +6917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -6856,7 +6934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>92</v>
       </c>
@@ -6873,7 +6951,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -6890,7 +6968,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -6907,7 +6985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>92</v>
       </c>
@@ -6924,7 +7002,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -6941,7 +7019,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -6958,7 +7036,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>92</v>
       </c>
@@ -6975,7 +7053,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>92</v>
       </c>
@@ -6992,7 +7070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -7009,7 +7087,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -7026,7 +7104,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -7043,7 +7121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -7060,7 +7138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7077,7 +7155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -7094,7 +7172,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -7111,7 +7189,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -7128,7 +7206,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -7145,7 +7223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -7162,7 +7240,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
@@ -7179,7 +7257,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -7196,7 +7274,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -7213,7 +7291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -7230,7 +7308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -7247,7 +7325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -7264,7 +7342,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -7281,7 +7359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
@@ -7298,7 +7376,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
@@ -7315,7 +7393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>92</v>
       </c>
@@ -7332,7 +7410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>93</v>
       </c>
@@ -7349,7 +7427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -7366,7 +7444,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
@@ -7383,7 +7461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>93</v>
       </c>
@@ -7400,7 +7478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>93</v>
       </c>
@@ -7417,7 +7495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>93</v>
       </c>
@@ -7434,7 +7512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>93</v>
       </c>
@@ -7451,7 +7529,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>93</v>
       </c>
@@ -7468,7 +7546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>93</v>
       </c>
@@ -7485,7 +7563,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>93</v>
       </c>
@@ -7502,7 +7580,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>93</v>
       </c>
@@ -7519,7 +7597,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>93</v>
       </c>
@@ -7536,7 +7614,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>93</v>
       </c>
@@ -7553,7 +7631,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>93</v>
       </c>
@@ -7570,7 +7648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>93</v>
       </c>
@@ -7587,7 +7665,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>93</v>
       </c>
@@ -7604,7 +7682,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>93</v>
       </c>
@@ -7621,7 +7699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>93</v>
       </c>
@@ -7655,7 +7733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
@@ -7672,7 +7750,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>93</v>
       </c>
@@ -7689,7 +7767,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>93</v>
       </c>
@@ -7723,7 +7801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>93</v>
       </c>
@@ -7740,7 +7818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>93</v>
       </c>
@@ -7757,7 +7835,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>93</v>
       </c>
@@ -7774,7 +7852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>93</v>
       </c>
@@ -7791,7 +7869,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>93</v>
       </c>
@@ -7808,7 +7886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>93</v>
       </c>
@@ -7825,7 +7903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>93</v>
       </c>
@@ -7842,7 +7920,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>93</v>
       </c>
@@ -7859,7 +7937,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>93</v>
       </c>
@@ -7876,7 +7954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>93</v>
       </c>
@@ -7893,7 +7971,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>93</v>
       </c>
@@ -7910,7 +7988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>93</v>
       </c>
@@ -7927,7 +8005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>93</v>
       </c>
@@ -7944,7 +8022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>93</v>
       </c>
@@ -7961,7 +8039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>93</v>
       </c>
@@ -7978,7 +8056,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>93</v>
       </c>
@@ -7995,7 +8073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>93</v>
       </c>
@@ -8012,7 +8090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>93</v>
       </c>
@@ -8029,7 +8107,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>93</v>
       </c>
@@ -8046,7 +8124,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>93</v>
       </c>
@@ -8063,7 +8141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>93</v>
       </c>
@@ -8080,7 +8158,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>93</v>
       </c>
@@ -8097,7 +8175,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>93</v>
       </c>
@@ -8114,7 +8192,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>93</v>
       </c>
@@ -8131,7 +8209,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>93</v>
       </c>
@@ -8148,7 +8226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>93</v>
       </c>
@@ -8165,7 +8243,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>93</v>
       </c>
@@ -8182,7 +8260,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>93</v>
       </c>
@@ -8199,7 +8277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>93</v>
       </c>
@@ -8216,7 +8294,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>93</v>
       </c>
@@ -8233,7 +8311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>93</v>
       </c>
@@ -8250,7 +8328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>93</v>
       </c>
@@ -8267,7 +8345,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>93</v>
       </c>
@@ -8284,7 +8362,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>93</v>
       </c>
@@ -8301,7 +8379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>93</v>
       </c>
@@ -8318,7 +8396,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>93</v>
       </c>
@@ -8335,7 +8413,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>93</v>
       </c>
@@ -8352,7 +8430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>93</v>
       </c>
@@ -8369,7 +8447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>93</v>
       </c>
@@ -8386,7 +8464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
@@ -8403,7 +8481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>93</v>
       </c>
@@ -8420,7 +8498,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>93</v>
       </c>
@@ -8437,7 +8515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +8532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>93</v>
       </c>
@@ -8471,7 +8549,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>93</v>
       </c>
@@ -8488,7 +8566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>93</v>
       </c>
@@ -8505,7 +8583,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>93</v>
       </c>
@@ -8522,7 +8600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>93</v>
       </c>
@@ -8539,7 +8617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -8556,7 +8634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -8573,7 +8651,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8590,7 +8668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>93</v>
       </c>
@@ -8607,7 +8685,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
@@ -8624,7 +8702,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>93</v>
       </c>
@@ -8641,7 +8719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>93</v>
       </c>
@@ -8658,7 +8736,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>93</v>
       </c>
@@ -8675,7 +8753,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>93</v>
       </c>
@@ -8692,7 +8770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>93</v>
       </c>
@@ -8709,7 +8787,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
@@ -8726,7 +8804,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>93</v>
       </c>
@@ -8743,7 +8821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>93</v>
       </c>
@@ -8760,7 +8838,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8777,7 +8855,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>93</v>
       </c>
@@ -8794,7 +8872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -8811,7 +8889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
@@ -8828,7 +8906,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>93</v>
       </c>
@@ -8845,7 +8923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>93</v>
       </c>
@@ -8862,7 +8940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>93</v>
       </c>
@@ -8879,7 +8957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>93</v>
       </c>
@@ -8896,7 +8974,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>93</v>
       </c>
@@ -8913,7 +8991,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>93</v>
       </c>
@@ -8930,7 +9008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>93</v>
       </c>
@@ -8947,7 +9025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>93</v>
       </c>
@@ -8978,13 +9056,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -8995,7 +9073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -9006,7 +9084,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -9017,7 +9095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -9028,7 +9106,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -9039,7 +9117,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -9063,12 +9141,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -9076,7 +9154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -9084,7 +9162,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -9092,7 +9170,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -9100,7 +9178,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -9108,7 +9186,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -9116,7 +9194,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -9124,7 +9202,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -9132,7 +9210,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -9140,7 +9218,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -9148,7 +9226,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -9156,7 +9234,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -9164,7 +9242,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -9172,7 +9250,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -9180,7 +9258,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -9188,7 +9266,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -9196,7 +9274,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9204,7 +9282,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -9212,7 +9290,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -9220,7 +9298,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -9228,7 +9306,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -9236,7 +9314,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -9244,7 +9322,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -9252,7 +9330,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -9260,7 +9338,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -9268,7 +9346,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -9290,24 +9368,24 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="2" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.07421875" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9363,7 +9441,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -9419,7 +9497,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -9466,7 +9544,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -9511,7 +9589,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -9558,7 +9636,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -9605,7 +9683,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9646,7 +9724,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -9693,7 +9771,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -9740,7 +9818,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -9782,7 +9860,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -9823,7 +9901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -9864,7 +9942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -9906,7 +9984,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -9947,7 +10025,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -9988,7 +10066,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>234</v>
       </c>
@@ -10027,7 +10105,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="49" t="s">
         <v>251</v>
       </c>
@@ -10047,7 +10125,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="49" t="s">
         <v>254</v>
       </c>
@@ -10081,13 +10159,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10101,7 +10179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -10115,7 +10193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -10129,7 +10207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -10143,7 +10221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -10157,7 +10235,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -10185,13 +10263,13 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10205,7 +10283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -10233,14 +10311,14 @@
       <selection activeCell="C51" sqref="C51:C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -10251,7 +10329,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -10262,7 +10340,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -10273,7 +10351,7 @@
         <v>3.71919846570994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -10284,7 +10362,7 @@
         <v>3.6299186561735336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -10295,7 +10373,7 @@
         <v>3.585565328571743E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -10306,7 +10384,7 @@
         <v>3.584903996649251E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>250</v>
       </c>
@@ -10317,7 +10395,7 @@
         <v>3.6714503009060241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -10328,7 +10406,7 @@
         <v>3.8644710446839932E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -10339,7 +10417,7 @@
         <v>4.090999272534885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -10350,7 +10428,7 @@
         <v>4.208187289200449E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -10361,7 +10439,7 @@
         <v>4.2068205365606327E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>250</v>
       </c>
@@ -10372,7 +10450,7 @@
         <v>4.1572647311685723E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -10383,7 +10461,7 @@
         <v>4.1779864647399856E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -10394,7 +10472,7 @@
         <v>4.2292176443356914E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -10405,7 +10483,7 @@
         <v>4.2667812975332314E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -10416,7 +10494,7 @@
         <v>4.2907215131274379E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -10427,7 +10505,7 @@
         <v>4.3359125278310512E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -10438,7 +10516,7 @@
         <v>4.4095849039966488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -10449,7 +10527,7 @@
         <v>4.4986001807640584E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -10460,7 +10538,7 @@
         <v>4.5571501003020071E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -10471,7 +10549,7 @@
         <v>4.6068822608733989E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -10482,7 +10560,7 @@
         <v>4.6279567048034737E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>250</v>
       </c>
@@ -10493,7 +10571,7 @@
         <v>4.6637127174128691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -10504,7 +10582,7 @@
         <v>4.4731168573507042E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -10515,7 +10593,7 @@
         <v>4.2083636443797805E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -10526,7 +10604,7 @@
         <v>3.9352335603906267E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -10537,7 +10615,7 @@
         <v>3.5708343609267057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -10548,7 +10626,7 @@
         <v>3.3815046660454817E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -10559,7 +10637,7 @@
         <v>3.2284809322158728E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -10570,7 +10648,7 @@
         <v>3.1555323242296276E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -10581,7 +10659,7 @@
         <v>3.1296355683945107E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -10592,7 +10670,7 @@
         <v>3.2007885183380179E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -10603,7 +10681,7 @@
         <v>3.2826031879102838E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -10614,7 +10692,7 @@
         <v>3.4834924314416357E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -10625,7 +10703,7 @@
         <v>3.7579194832545064E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -10636,7 +10714,7 @@
         <v>3.9971348031355554E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -10647,7 +10725,7 @@
         <v>4.2642108798359668E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -10658,7 +10736,7 @@
         <v>4.4827761322255244E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -10669,7 +10747,7 @@
         <v>4.6964033249975522E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -10680,7 +10758,7 @@
         <v>4.7776568514314624E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -10691,7 +10769,7 @@
         <v>4.8205001300449225E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -10702,7 +10780,7 @@
         <v>5.0443681850919422E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -10713,7 +10791,7 @@
         <v>5.1229562816186625E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -10724,7 +10802,7 @@
         <v>5.146215664703508E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>188</v>
       </c>
@@ -10735,7 +10813,7 @@
         <v>5.0967228399005318E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -10746,7 +10824,7 @@
         <v>4.9399675042008581E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -10757,7 +10835,7 @@
         <v>4.7706145050450982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -10768,7 +10846,7 @@
         <v>4.5594002277679999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -10779,7 +10857,7 @@
         <v>4.2075915371758733E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -10790,7 +10868,7 @@
         <v>3.8826896600679041E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -10801,7 +10879,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -10812,7 +10890,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -10823,7 +10901,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -10834,7 +10912,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>249</v>
       </c>
@@ -10845,7 +10923,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>249</v>
       </c>
@@ -10856,7 +10934,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>249</v>
       </c>
@@ -10867,7 +10945,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>249</v>
       </c>
@@ -10878,7 +10956,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -10889,7 +10967,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -10900,7 +10978,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>249</v>
       </c>
@@ -10911,7 +10989,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>249</v>
       </c>
@@ -10922,7 +11000,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>249</v>
       </c>
@@ -10933,7 +11011,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -10944,7 +11022,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>249</v>
       </c>
@@ -10955,7 +11033,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>249</v>
       </c>
@@ -10966,7 +11044,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>249</v>
       </c>
@@ -10977,7 +11055,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -10988,7 +11066,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -10999,7 +11077,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -11010,7 +11088,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -11021,7 +11099,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -11032,7 +11110,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -11043,7 +11121,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>249</v>
       </c>
@@ -11054,7 +11132,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -11065,7 +11143,7 @@
         <v>3.8174573194236283E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -11076,7 +11154,7 @@
         <v>3.7914264955818393E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -11087,7 +11165,7 @@
         <v>3.859254649671446E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -11098,7 +11176,7 @@
         <v>3.9329067581681768E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -11109,7 +11187,7 @@
         <v>4.0593605748532595E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>189</v>
       </c>
@@ -11120,7 +11198,7 @@
         <v>4.3176738675626339E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -11131,7 +11209,7 @@
         <v>4.6808826926876233E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -11142,7 +11220,7 @@
         <v>4.7738729039395036E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -11153,7 +11231,7 @@
         <v>4.6211952041505175E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -11164,7 +11242,7 @@
         <v>4.3901997970303627E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -11175,7 +11253,7 @@
         <v>4.1852673902956841E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>189</v>
       </c>
@@ -11186,7 +11264,7 @@
         <v>4.0126080568778331E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -11197,7 +11275,7 @@
         <v>3.9051705775110419E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -11208,7 +11286,7 @@
         <v>3.8019160488234005E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -11219,7 +11297,7 @@
         <v>3.7317711835884185E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>189</v>
       </c>
@@ -11230,7 +11308,7 @@
         <v>3.7940971487077584E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -11241,7 +11319,7 @@
         <v>3.9449086089629701E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>189</v>
       </c>
@@ -11252,7 +11330,7 @@
         <v>4.2362993885813174E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -11263,7 +11341,7 @@
         <v>4.4625004906922915E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>189</v>
       </c>
@@ -11274,7 +11352,7 @@
         <v>4.5016593443578758E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -11285,7 +11363,7 @@
         <v>4.4759181094092583E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -11296,7 +11374,7 @@
         <v>4.3864029648754417E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -11307,7 +11385,7 @@
         <v>4.2250054217476116E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>189</v>
       </c>
@@ -11318,7 +11396,7 @@
         <v>4.0922450025001181E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C101" s="15"/>
     </row>
   </sheetData>
@@ -11333,13 +11411,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11347,7 +11425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -11355,7 +11433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -11376,9 +11454,9 @@
       <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
@@ -11395,7 +11473,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>207</v>
       </c>
